--- a/biology/Botanique/Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates/Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates.xlsx
+++ b/biology/Botanique/Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates/Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
+          <t>Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Églises en bois de la partie slovaque de la zone des Carpates sont un ensemble de huit monuments culturels inscrit à la liste du patrimoine mondial en Slovaquie. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Slovaquie mais aussi en Pologne, Ukraine et Roumanie, et ont également été inscrites, mais en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 en Roumanie[1], en 2003 en Pologne[2] et en 2013 en Ukraine et Pologne orientale[3].
+Les Églises en bois de la partie slovaque de la zone des Carpates sont un ensemble de huit monuments culturels inscrit à la liste du patrimoine mondial en Slovaquie. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Slovaquie mais aussi en Pologne, Ukraine et Roumanie, et ont également été inscrites, mais en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 en Roumanie, en 2003 en Pologne et en 2013 en Ukraine et Pologne orientale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
+          <t>Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
+          <t>Églises_en_bois_de_la_partie_slovaque_de_la_zone_des_Carpates</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
